--- a/results/experiments.xlsx
+++ b/results/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM11"/>
+  <dimension ref="A1:BB51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,225 +531,170 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>discount rate 3</t>
+          <t>0_RfR 0</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>0_RfR 0</t>
+          <t>0_RfR 1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>0_RfR 1</t>
+          <t>0_RfR 2</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>0_RfR 2</t>
+          <t>1_RfR 0</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>0_RfR 3</t>
+          <t>1_RfR 1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>1_RfR 0</t>
+          <t>1_RfR 2</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>1_RfR 1</t>
+          <t>2_RfR 0</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>1_RfR 2</t>
+          <t>2_RfR 1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>1_RfR 3</t>
+          <t>2_RfR 2</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>2_RfR 0</t>
+          <t>3_RfR 0</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>2_RfR 1</t>
+          <t>3_RfR 1</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>2_RfR 2</t>
+          <t>3_RfR 2</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>2_RfR 3</t>
+          <t>4_RfR 0</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>3_RfR 0</t>
+          <t>4_RfR 1</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>3_RfR 1</t>
+          <t>4_RfR 2</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>3_RfR 2</t>
+          <t>EWS_DaysToThreat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>3_RfR 3</t>
+          <t>A.1_DikeIncrease 0</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>4_RfR 0</t>
+          <t>A.1_DikeIncrease 1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>4_RfR 1</t>
+          <t>A.1_DikeIncrease 2</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>4_RfR 2</t>
+          <t>A.2_DikeIncrease 0</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>4_RfR 3</t>
+          <t>A.2_DikeIncrease 1</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>EWS_DaysToThreat</t>
+          <t>A.2_DikeIncrease 2</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>A.1_DikeIncrease 0</t>
+          <t>A.3_DikeIncrease 0</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>A.1_DikeIncrease 1</t>
+          <t>A.3_DikeIncrease 1</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>A.1_DikeIncrease 2</t>
+          <t>A.3_DikeIncrease 2</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>A.1_DikeIncrease 3</t>
+          <t>A.4_DikeIncrease 0</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>A.2_DikeIncrease 0</t>
+          <t>A.4_DikeIncrease 1</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>A.2_DikeIncrease 1</t>
+          <t>A.4_DikeIncrease 2</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>A.2_DikeIncrease 2</t>
+          <t>A.5_DikeIncrease 0</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>A.2_DikeIncrease 3</t>
+          <t>A.5_DikeIncrease 1</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>A.3_DikeIncrease 0</t>
+          <t>A.5_DikeIncrease 2</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>A.3_DikeIncrease 1</t>
+          <t>scenario</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>A.3_DikeIncrease 2</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>A.3_DikeIncrease 3</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>A.4_DikeIncrease 0</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>A.4_DikeIncrease 1</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>A.4_DikeIncrease 2</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>A.4_DikeIncrease 3</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>A.5_DikeIncrease 0</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>A.5_DikeIncrease 1</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>A.5_DikeIncrease 2</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>A.5_DikeIncrease 3</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>scenario</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>policy</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
@@ -760,52 +705,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>335.8204037420737</v>
+        <v>31.71795630115786</v>
       </c>
       <c r="D2" t="n">
         <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7818677187819555</v>
+        <v>0.3306813914120483</v>
       </c>
       <c r="F2" t="n">
-        <v>213.1068005392759</v>
+        <v>291.2314002618708</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0.030232166686945</v>
+        <v>0.7219596424000269</v>
       </c>
       <c r="I2" t="n">
-        <v>60.33371956941416</v>
+        <v>150.408814894475</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6660048981024294</v>
+        <v>0.578996752477804</v>
       </c>
       <c r="L2" t="n">
-        <v>136.2136680899407</v>
+        <v>225.4762468760188</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8635977747487903</v>
+        <v>0.5974060236131801</v>
       </c>
       <c r="O2" t="n">
-        <v>38.73476259155597</v>
+        <v>112.3683583950689</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7298257139248151</v>
+        <v>0.48348039979392</v>
       </c>
       <c r="R2" t="n">
         <v>3.5</v>
@@ -817,7 +762,7 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -912,45 +857,12 @@
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="inlineStr">
+      <c r="BA2" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
@@ -961,64 +873,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>240.2144715714639</v>
+        <v>295.5711357604317</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3236821488538734</v>
+        <v>0.2401281212202795</v>
       </c>
       <c r="F3" t="n">
-        <v>182.972208308838</v>
+        <v>60.24962954572599</v>
       </c>
       <c r="G3" t="n">
         <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1865427494197801</v>
+        <v>0.1830162410191344</v>
       </c>
       <c r="I3" t="n">
-        <v>229.7071126236813</v>
+        <v>232.4467828040433</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.577541469427046</v>
+        <v>0.06571318808639781</v>
       </c>
       <c r="L3" t="n">
-        <v>62.18143800503918</v>
+        <v>318.3713003419994</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9279294974329636</v>
+        <v>0.8849015027744105</v>
       </c>
       <c r="O3" t="n">
-        <v>292.194190926466</v>
+        <v>167.7827770971119</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5397004837169237</v>
+        <v>0.3013015317573088</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1111,47 +1023,14 @@
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
         <v>1</v>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
@@ -1162,64 +1041,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C4" t="n">
-        <v>168.1043886178791</v>
+        <v>303.2840382508646</v>
       </c>
       <c r="D4" t="n">
         <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8500031931754487</v>
+        <v>0.7125986719738977</v>
       </c>
       <c r="F4" t="n">
-        <v>91.63501374361957</v>
+        <v>335.837149013742</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2838767176780568</v>
+        <v>0.09746177082985463</v>
       </c>
       <c r="I4" t="n">
-        <v>101.7154450804972</v>
+        <v>280.8570145996702</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03437913724814303</v>
+        <v>0.2694104782987173</v>
       </c>
       <c r="L4" t="n">
-        <v>39.92352351748279</v>
+        <v>256.8656551111716</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2522152565794435</v>
+        <v>0.8423032961122444</v>
       </c>
       <c r="O4" t="n">
-        <v>156.3043979453357</v>
+        <v>304.6236614292868</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3902458713647311</v>
+        <v>0.6389344390342011</v>
       </c>
       <c r="R4" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1312,47 +1191,14 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
         <v>2</v>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
@@ -1363,64 +1209,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
-        <v>265.5659100658805</v>
+        <v>271.4733931566686</v>
       </c>
       <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9960161255988526</v>
+      </c>
+      <c r="F5" t="n">
+        <v>52.63198811854492</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.01449317345568716</v>
-      </c>
-      <c r="F5" t="n">
-        <v>140.0756776883279</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.4041538179814974</v>
+        <v>0.4087724467248876</v>
       </c>
       <c r="I5" t="n">
-        <v>208.4437325374328</v>
+        <v>304.7230637323966</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2875760234255387</v>
+        <v>0.9256211763392028</v>
       </c>
       <c r="L5" t="n">
-        <v>231.7005867418072</v>
+        <v>249.369295659877</v>
       </c>
       <c r="M5" t="n">
         <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06584868790616739</v>
+        <v>0.3019426959646844</v>
       </c>
       <c r="O5" t="n">
-        <v>330.6659736759725</v>
+        <v>154.6816640718907</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1797503728282349</v>
+        <v>0.4048254078368942</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1513,47 +1359,14 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
         <v>3</v>
       </c>
-      <c r="BL5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
@@ -1564,64 +1377,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>130.1342894545448</v>
+        <v>336.9029088186673</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2064881498248996</v>
+        <v>0.4362177437448648</v>
       </c>
       <c r="F6" t="n">
-        <v>40.0673032051288</v>
+        <v>192.1429152042844</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3071964377894816</v>
+        <v>0.04766057478350079</v>
       </c>
       <c r="I6" t="n">
-        <v>176.5704698393546</v>
+        <v>108.0427703713941</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4123905909517978</v>
+        <v>0.1621101890200548</v>
       </c>
       <c r="L6" t="n">
-        <v>103.1126268005033</v>
+        <v>121.3583771721804</v>
       </c>
       <c r="M6" t="n">
         <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>0.154261781698944</v>
+        <v>0.04744881235324726</v>
       </c>
       <c r="O6" t="n">
-        <v>121.6903645507454</v>
+        <v>226.8257328750147</v>
       </c>
       <c r="P6" t="n">
         <v>10</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.849592524576984</v>
+        <v>0.3727413790354767</v>
       </c>
       <c r="R6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1714,47 +1527,14 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
         <v>4</v>
       </c>
-      <c r="BL6" t="inlineStr">
+      <c r="BA6" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM6" t="inlineStr">
+      <c r="BB6" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
@@ -1765,64 +1545,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C7" t="n">
-        <v>36.69748092794621</v>
+        <v>97.0896158638073</v>
       </c>
       <c r="D7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8830047314016545</v>
+      </c>
+      <c r="F7" t="n">
+        <v>345.2854890032913</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7613462196538633</v>
+      </c>
+      <c r="I7" t="n">
+        <v>335.578184416286</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9685854946202241</v>
+      </c>
+      <c r="L7" t="n">
+        <v>101.4196529316833</v>
+      </c>
+      <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.6460755369976316</v>
-      </c>
-      <c r="F7" t="n">
-        <v>280.4480288423304</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9432068598403538</v>
-      </c>
-      <c r="I7" t="n">
-        <v>147.4831349710668</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.19094643512484</v>
-      </c>
-      <c r="L7" t="n">
-        <v>337.4353404590754</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="N7" t="n">
-        <v>0.6801281736862945</v>
+        <v>0.3911387515298639</v>
       </c>
       <c r="O7" t="n">
-        <v>92.04239488883674</v>
+        <v>237.2940860542545</v>
       </c>
       <c r="P7" t="n">
         <v>10</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9932435008005278</v>
+        <v>0.569017140311463</v>
       </c>
       <c r="R7" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
         <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1915,47 +1695,14 @@
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
         <v>5</v>
       </c>
-      <c r="BL7" t="inlineStr">
+      <c r="BA7" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM7" t="inlineStr">
+      <c r="BB7" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
@@ -1966,64 +1713,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C8" t="n">
-        <v>100.227271712016</v>
+        <v>242.8056946104847</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5368454333239934</v>
+        <v>0.7791863494898406</v>
       </c>
       <c r="F8" t="n">
-        <v>120.3842868477065</v>
+        <v>284.7749160874741</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6242260363610834</v>
+        <v>0.3177587078641928</v>
       </c>
       <c r="I8" t="n">
-        <v>320.2274259500719</v>
+        <v>199.609307785138</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.776649360760379</v>
+        <v>0.5810073182224823</v>
       </c>
       <c r="L8" t="n">
-        <v>163.4559825753513</v>
+        <v>274.5477239637758</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3412673348745746</v>
+        <v>0.9156117271985833</v>
       </c>
       <c r="O8" t="n">
-        <v>260.8156898896948</v>
+        <v>259.8933698255502</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6949001102202035</v>
+        <v>0.6081846221164353</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2116,47 +1863,14 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
         <v>6</v>
       </c>
-      <c r="BL8" t="inlineStr">
+      <c r="BA8" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM8" t="inlineStr">
+      <c r="BB8" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
@@ -2167,64 +1881,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>293.8605418312077</v>
+        <v>259.4026774388998</v>
       </c>
       <c r="D9" t="n">
         <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4810661802639083</v>
+        <v>0.6366737494309052</v>
       </c>
       <c r="F9" t="n">
-        <v>303.8850797590283</v>
+        <v>94.38915157881402</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8853268354538396</v>
+        <v>0.5935411079287479</v>
       </c>
       <c r="I9" t="n">
-        <v>86.65788384415352</v>
+        <v>297.4742657784764</v>
       </c>
       <c r="J9" t="n">
         <v>1.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9560077616304393</v>
+        <v>0.315545126374225</v>
       </c>
       <c r="L9" t="n">
-        <v>214.3079711422386</v>
+        <v>233.4301424235856</v>
       </c>
       <c r="M9" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5683298368498378</v>
+        <v>0.9834904717645697</v>
       </c>
       <c r="O9" t="n">
-        <v>225.746875022167</v>
+        <v>230.304666645078</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4849007134499621</v>
+        <v>0.5536558022914557</v>
       </c>
       <c r="R9" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2317,47 +2031,14 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" t="n">
         <v>7</v>
       </c>
-      <c r="BL9" t="inlineStr">
+      <c r="BA9" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM9" t="inlineStr">
+      <c r="BB9" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
@@ -2368,64 +2049,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>194.7426567682716</v>
+        <v>37.61816245923406</v>
       </c>
       <c r="D10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8045597710908478</v>
+      </c>
+      <c r="F10" t="n">
+        <v>182.0805100618909</v>
+      </c>
+      <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.1541679184972523</v>
-      </c>
-      <c r="F10" t="n">
-        <v>346.2976136545559</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H10" t="n">
-        <v>0.5602179612287737</v>
+        <v>0.8485897413071369</v>
       </c>
       <c r="I10" t="n">
-        <v>296.9942118537691</v>
+        <v>346.8508082321839</v>
       </c>
       <c r="J10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3512599443744118</v>
+        <v>0.1819552090361394</v>
       </c>
       <c r="L10" t="n">
-        <v>273.9094981988119</v>
+        <v>148.3846539019895</v>
       </c>
       <c r="M10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7082311715921312</v>
+        <v>0.7160528225593548</v>
       </c>
       <c r="O10" t="n">
-        <v>172.7878516921798</v>
+        <v>249.8222850960539</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04057953435444457</v>
+        <v>0.3242680310035427</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2518,47 +2199,14 @@
         <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
         <v>8</v>
       </c>
-      <c r="BL10" t="inlineStr">
+      <c r="BA10" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM10" t="inlineStr">
+      <c r="BB10" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
@@ -2569,197 +2217,6884 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>79.74554758534099</v>
+        <v>169.0340568354462</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9660066621412092</v>
+        <v>0.455240624898059</v>
       </c>
       <c r="F11" t="n">
-        <v>251.7734626050258</v>
+        <v>252.6172905801673</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7952245579920036</v>
+        <v>0.6319771788143623</v>
       </c>
       <c r="I11" t="n">
-        <v>279.0301322224497</v>
+        <v>214.7846403352117</v>
       </c>
       <c r="J11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8797220777952984</v>
+      </c>
+      <c r="L11" t="n">
+        <v>217.1342025846349</v>
+      </c>
+      <c r="M11" t="n">
         <v>10</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.8630118158639414</v>
-      </c>
-      <c r="L11" t="n">
-        <v>294.4390406821457</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="N11" t="n">
-        <v>0.4300053622635342</v>
+        <v>0.3716101051196764</v>
       </c>
       <c r="O11" t="n">
-        <v>210.7328943155946</v>
+        <v>279.347178294027</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2830910130513604</v>
+        <v>0.05111722255244717</v>
       </c>
       <c r="R11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S11" t="n">
         <v>4.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.5</v>
       </c>
       <c r="T11" t="n">
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>107</v>
+      </c>
+      <c r="C12" t="n">
+        <v>113.8084130552993</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2178565355353831</v>
+      </c>
+      <c r="F12" t="n">
+        <v>156.1405962382344</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1298450886090287</v>
+      </c>
+      <c r="I12" t="n">
+        <v>37.26403410139888</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.438233200041089</v>
+      </c>
+      <c r="L12" t="n">
+        <v>337.8069060509729</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6606920223271715</v>
+      </c>
+      <c r="O12" t="n">
+        <v>62.1179349555206</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.6807046576832514</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.5</v>
       </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
+      <c r="T12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>41</v>
+      </c>
+      <c r="C13" t="n">
+        <v>123.5308645210025</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3055131525681545</v>
+      </c>
+      <c r="F13" t="n">
+        <v>103.728206354846</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4905481224327579</v>
+      </c>
+      <c r="I13" t="n">
+        <v>277.3243627388209</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.03678727183492406</v>
+      </c>
+      <c r="L13" t="n">
+        <v>74.32130159097554</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.4144567837612251</v>
+      </c>
+      <c r="O13" t="n">
+        <v>328.4957496771199</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.1177236330816389</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>109</v>
+      </c>
+      <c r="C14" t="n">
+        <v>324.7149996253793</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.04300952986962921</v>
+      </c>
+      <c r="F14" t="n">
+        <v>170.8979583993294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7876238406296913</v>
+      </c>
+      <c r="I14" t="n">
+        <v>290.8931365608443</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8534520900668772</v>
+      </c>
+      <c r="L14" t="n">
+        <v>137.3992410264929</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1568517343405592</v>
+      </c>
+      <c r="O14" t="n">
+        <v>74.55751340879519</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.7280132500909569</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" t="n">
+        <v>182.7665912958172</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6088441256912727</v>
+      </c>
+      <c r="F15" t="n">
+        <v>267.6924203076019</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8936130122806092</v>
+      </c>
+      <c r="I15" t="n">
+        <v>36.19903051778977</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.399930637529435</v>
+      </c>
+      <c r="L15" t="n">
+        <v>305.8375561421192</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.221388301228249</v>
+      </c>
+      <c r="O15" t="n">
+        <v>123.576319399933</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.09264628179105397</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75.44684445174033</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.573951755082832</v>
+      </c>
+      <c r="F16" t="n">
+        <v>84.29496406808917</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8140015650375799</v>
+      </c>
+      <c r="I16" t="n">
+        <v>136.948706864748</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8256701808886925</v>
+      </c>
+      <c r="L16" t="n">
+        <v>296.1446958243533</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5267511192548148</v>
+      </c>
+      <c r="O16" t="n">
+        <v>200.2818277804438</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3954594888901858</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>66</v>
+      </c>
+      <c r="C17" t="n">
+        <v>137.8439636678013</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5259844879446527</v>
+      </c>
+      <c r="F17" t="n">
+        <v>43.69911067339611</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.342011005704165</v>
+      </c>
+      <c r="I17" t="n">
+        <v>91.79986065590424</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3515069648332394</v>
+      </c>
+      <c r="L17" t="n">
+        <v>154.881844330103</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2044807296256055</v>
+      </c>
+      <c r="O17" t="n">
+        <v>58.68979150561759</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1900335305439936</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>211.1368275076122</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8435010221609326</v>
+      </c>
+      <c r="F18" t="n">
+        <v>198.0504441180812</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2046681520352292</v>
+      </c>
+      <c r="I18" t="n">
+        <v>178.4463334467018</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1068681209206375</v>
+      </c>
+      <c r="L18" t="n">
+        <v>188.2584616903084</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.770300012457979</v>
+      </c>
+      <c r="O18" t="n">
+        <v>133.0353516701593</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5278563723877465</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>91</v>
+      </c>
+      <c r="C19" t="n">
+        <v>83.1513775246508</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02794668238594571</v>
+      </c>
+      <c r="F19" t="n">
+        <v>121.1444926592601</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4267936228126375</v>
+      </c>
+      <c r="I19" t="n">
+        <v>267.1052377883082</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9484974742278598</v>
+      </c>
+      <c r="L19" t="n">
+        <v>208.0660996257982</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.08519780333466766</v>
+      </c>
+      <c r="O19" t="n">
+        <v>297.9217373173012</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.6694399037412667</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>319.5852304659693</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9018172831877552</v>
+      </c>
+      <c r="F20" t="n">
+        <v>323.1598932842014</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9928776483246416</v>
+      </c>
+      <c r="I20" t="n">
+        <v>312.1002034388337</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8896713295418774</v>
+      </c>
+      <c r="L20" t="n">
+        <v>33.84964980238554</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.006641913332497627</v>
+      </c>
+      <c r="O20" t="n">
+        <v>179.6740672745988</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.9960899261316348</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>126</v>
+      </c>
+      <c r="C21" t="n">
+        <v>317.435928991514</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9759002754759097</v>
+      </c>
+      <c r="F21" t="n">
+        <v>240.8381564488308</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5197383107419277</v>
+      </c>
+      <c r="I21" t="n">
+        <v>48.59302575388322</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4658619118284264</v>
+      </c>
+      <c r="L21" t="n">
+        <v>261.9023124372119</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5008147064884261</v>
+      </c>
+      <c r="O21" t="n">
+        <v>244.1824635678714</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1545792363730694</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>65</v>
+      </c>
+      <c r="C22" t="n">
+        <v>149.1003052226704</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2226030354487046</v>
+      </c>
+      <c r="F22" t="n">
+        <v>205.5934067269827</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2782425096167769</v>
+      </c>
+      <c r="I22" t="n">
+        <v>249.6534923567614</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6301232359466786</v>
+      </c>
+      <c r="L22" t="n">
+        <v>92.11360702497605</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.07425967905298328</v>
+      </c>
+      <c r="O22" t="n">
+        <v>273.0463664978429</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.4652290231277415</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>87</v>
+      </c>
+      <c r="C23" t="n">
+        <v>175.4630061441225</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6609560262957392</v>
+      </c>
+      <c r="F23" t="n">
+        <v>67.60025774818885</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3209950863893892</v>
+      </c>
+      <c r="I23" t="n">
+        <v>106.3428854460416</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.7240469259499338</v>
+      </c>
+      <c r="L23" t="n">
+        <v>177.3489144871709</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.9465869101816775</v>
+      </c>
+      <c r="O23" t="n">
+        <v>99.7758943902225</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.9483314548859261</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>111</v>
+      </c>
+      <c r="C24" t="n">
+        <v>161.700718159764</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01647342161971858</v>
+      </c>
+      <c r="F24" t="n">
+        <v>135.389586201316</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01044115571889941</v>
+      </c>
+      <c r="I24" t="n">
+        <v>224.9015801583616</v>
+      </c>
+      <c r="J24" t="n">
+        <v>10</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1292147069785517</v>
+      </c>
+      <c r="L24" t="n">
+        <v>177.0510785545048</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.345079067062295</v>
+      </c>
+      <c r="O24" t="n">
+        <v>320.2530499230271</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1691016924626707</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>81</v>
+      </c>
+      <c r="C25" t="n">
+        <v>200.2663622719938</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6507128279631484</v>
+      </c>
+      <c r="F25" t="n">
+        <v>68.66941123644254</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.2979128533795065</v>
+      </c>
+      <c r="I25" t="n">
+        <v>123.616984073982</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2282850563807954</v>
+      </c>
+      <c r="L25" t="n">
+        <v>85.90765279810056</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3268498435008361</v>
+      </c>
+      <c r="O25" t="n">
+        <v>338.4644016655482</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.07685764062593495</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>37</v>
+      </c>
+      <c r="C26" t="n">
+        <v>277.7043843124797</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1378986062669705</v>
+      </c>
+      <c r="F26" t="n">
+        <v>305.3382507193128</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.3921248815484146</v>
+      </c>
+      <c r="I26" t="n">
+        <v>144.8478017061667</v>
+      </c>
+      <c r="J26" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.6589247630754778</v>
+      </c>
+      <c r="L26" t="n">
+        <v>316.5637087833761</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2480434339208981</v>
+      </c>
+      <c r="O26" t="n">
+        <v>82.81489300434605</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.2727564678666589</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>61</v>
+      </c>
+      <c r="C27" t="n">
+        <v>143.3882135318412</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3610124792197858</v>
+      </c>
+      <c r="F27" t="n">
+        <v>247.332905776384</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9752287772404918</v>
+      </c>
+      <c r="I27" t="n">
+        <v>330.4117753282466</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.6882180098643175</v>
+      </c>
+      <c r="L27" t="n">
+        <v>128.6051050207827</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.7567473314788854</v>
+      </c>
+      <c r="O27" t="n">
+        <v>159.6169225860666</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.7895416063638108</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>51</v>
+      </c>
+      <c r="C28" t="n">
+        <v>49.51011405478116</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9373771685169943</v>
+      </c>
+      <c r="F28" t="n">
+        <v>37.97393187729656</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7019074155967273</v>
+      </c>
+      <c r="I28" t="n">
+        <v>126.3484961162538</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.7880754404369746</v>
+      </c>
+      <c r="L28" t="n">
+        <v>60.363770086821</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.7904061284833138</v>
+      </c>
+      <c r="O28" t="n">
+        <v>313.3521169840438</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.929828311027794</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>31</v>
+      </c>
+      <c r="C29" t="n">
+        <v>281.8039940674566</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.486176754734191</v>
+      </c>
+      <c r="F29" t="n">
+        <v>265.534768257106</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.603666192862243</v>
+      </c>
+      <c r="I29" t="n">
+        <v>307.518478617358</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5016028054581665</v>
+      </c>
+      <c r="L29" t="n">
+        <v>165.6764528274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6836333633657758</v>
+      </c>
+      <c r="O29" t="n">
+        <v>127.965683122035</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.7030448834871001</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>123</v>
+      </c>
+      <c r="C30" t="n">
+        <v>92.67709790872603</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7267428770730612</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.99489035693023</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.2480930374910264</v>
+      </c>
+      <c r="I30" t="n">
+        <v>162.4867874822278</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.3351117264452306</v>
+      </c>
+      <c r="L30" t="n">
+        <v>327.7141655468935</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1121898356301314</v>
+      </c>
+      <c r="O30" t="n">
+        <v>42.62511550381255</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6410254231307474</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>9</v>
       </c>
-      <c r="BL11" t="inlineStr">
+      <c r="C31" t="n">
+        <v>263.1828616650599</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2841536488137516</v>
+      </c>
+      <c r="F31" t="n">
+        <v>329.2793750223184</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4677381454585106</v>
+      </c>
+      <c r="I31" t="n">
+        <v>207.9985929304302</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.7197648390478472</v>
+      </c>
+      <c r="L31" t="n">
+        <v>41.7377298615811</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2609632621015299</v>
+      </c>
+      <c r="O31" t="n">
+        <v>309.2983347309172</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1314707388755904</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA31" t="inlineStr">
         <is>
           <t>Policy 0</t>
         </is>
       </c>
-      <c r="BM11" t="inlineStr">
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>221.6098896292698</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7558989277456097</v>
+      </c>
+      <c r="F32" t="n">
+        <v>128.293508363879</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.7569918585213236</v>
+      </c>
+      <c r="I32" t="n">
+        <v>343.3613565213419</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.4522241585072704</v>
+      </c>
+      <c r="L32" t="n">
+        <v>144.4408505727023</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8196714462509395</v>
+      </c>
+      <c r="O32" t="n">
+        <v>106.6038966805389</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5852552934034971</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>120</v>
+      </c>
+      <c r="C33" t="n">
+        <v>43.28899983346068</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7967076891648398</v>
+      </c>
+      <c r="F33" t="n">
+        <v>341.080437459034</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1591874869193545</v>
+      </c>
+      <c r="I33" t="n">
+        <v>259.0225750246724</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.4029858921803364</v>
+      </c>
+      <c r="L33" t="n">
+        <v>202.5181183197202</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5625237019040302</v>
+      </c>
+      <c r="O33" t="n">
+        <v>195.2211367837927</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.4221450194283312</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>31</v>
+      </c>
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>50</v>
+      </c>
+      <c r="C34" t="n">
+        <v>292.0764640529706</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3479175886707168</v>
+      </c>
+      <c r="F34" t="n">
+        <v>317.0949536600332</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9339145729299979</v>
+      </c>
+      <c r="I34" t="n">
+        <v>76.65701570318018</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.6077150561997873</v>
+      </c>
+      <c r="L34" t="n">
+        <v>114.2994094852735</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.4672536953358791</v>
+      </c>
+      <c r="O34" t="n">
+        <v>349.5186571424757</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.2480910220100175</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA34" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>78</v>
+      </c>
+      <c r="C35" t="n">
+        <v>128.0155971005245</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8723463301169461</v>
+      </c>
+      <c r="F35" t="n">
+        <v>145.1578259003883</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6510050940359442</v>
+      </c>
+      <c r="I35" t="n">
+        <v>217.2293075151801</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.280365903744736</v>
+      </c>
+      <c r="L35" t="n">
+        <v>78.90975313177933</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1281164943957927</v>
+      </c>
+      <c r="O35" t="n">
+        <v>31.53092115004265</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.827752618149907</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>33</v>
+      </c>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>63</v>
+      </c>
+      <c r="C36" t="n">
+        <v>188.4719121395586</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1664913936853297</v>
+      </c>
+      <c r="F36" t="n">
+        <v>304.9979323934048</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.3721350600184261</v>
+      </c>
+      <c r="I36" t="n">
+        <v>49.31240868736878</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.2107929815933656</v>
+      </c>
+      <c r="L36" t="n">
+        <v>305.0278854421582</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.6093699629716877</v>
+      </c>
+      <c r="O36" t="n">
+        <v>203.4199541893631</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7628881760112696</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+      <c r="C37" t="n">
+        <v>338.220097562484</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4191904279657687</v>
+      </c>
+      <c r="F37" t="n">
+        <v>188.8960735154441</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.4411510906889414</v>
+      </c>
+      <c r="I37" t="n">
+        <v>59.67915210042793</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2588916778393249</v>
+      </c>
+      <c r="L37" t="n">
+        <v>211.1957067201521</v>
+      </c>
+      <c r="M37" t="n">
+        <v>10</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.9351908961497798</v>
+      </c>
+      <c r="O37" t="n">
+        <v>213.3650570439197</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.03112727558196425</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA37" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>231.7977970992936</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6873042413431828</v>
+      </c>
+      <c r="F38" t="n">
+        <v>212.9121418078147</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8367049973656369</v>
+      </c>
+      <c r="I38" t="n">
+        <v>190.6568298773071</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01300970204335716</v>
+      </c>
+      <c r="L38" t="n">
+        <v>235.0941746516395</v>
+      </c>
+      <c r="M38" t="n">
+        <v>10</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.4247449856288976</v>
+      </c>
+      <c r="O38" t="n">
+        <v>285.2175405596772</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.8917378278301638</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>36</v>
+      </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>72</v>
+      </c>
+      <c r="C39" t="n">
+        <v>251.658791796915</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5040830220438179</v>
+      </c>
+      <c r="F39" t="n">
+        <v>169.0299567861106</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9418693703840095</v>
+      </c>
+      <c r="I39" t="n">
+        <v>235.6171477503142</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.774609916983715</v>
+      </c>
+      <c r="L39" t="n">
+        <v>246.4636140282036</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.4892525495878139</v>
+      </c>
+      <c r="O39" t="n">
+        <v>173.1278725091466</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.4567651417073509</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA39" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>94</v>
+      </c>
+      <c r="C40" t="n">
+        <v>240.0752830903486</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3870268292004849</v>
+      </c>
+      <c r="F40" t="n">
+        <v>79.48743238210241</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5754722230642989</v>
+      </c>
+      <c r="I40" t="n">
+        <v>94.06602007363423</v>
+      </c>
+      <c r="J40" t="n">
+        <v>10</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8192825328095207</v>
+      </c>
+      <c r="L40" t="n">
+        <v>279.6907902297984</v>
+      </c>
+      <c r="M40" t="n">
+        <v>10</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8389019544185748</v>
+      </c>
+      <c r="O40" t="n">
+        <v>332.4347008857214</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7534462125869003</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>38</v>
+      </c>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>101</v>
+      </c>
+      <c r="C41" t="n">
+        <v>73.20592197132504</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9467237001128068</v>
+      </c>
+      <c r="F41" t="n">
+        <v>160.418452440329</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5293645596509708</v>
+      </c>
+      <c r="I41" t="n">
+        <v>156.3995003313987</v>
+      </c>
+      <c r="J41" t="n">
+        <v>10</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9107521393569963</v>
+      </c>
+      <c r="L41" t="n">
+        <v>48.53342496189033</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.03580085401796831</v>
+      </c>
+      <c r="O41" t="n">
+        <v>143.9295769140349</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2986598671430933</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>39</v>
+      </c>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>71</v>
+      </c>
+      <c r="C42" t="n">
+        <v>223.2478121520662</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.07999924386800966</v>
+      </c>
+      <c r="F42" t="n">
+        <v>227.1827777056869</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8715827746228827</v>
+      </c>
+      <c r="I42" t="n">
+        <v>170.2906207648778</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.3625487760705401</v>
+      </c>
+      <c r="L42" t="n">
+        <v>191.938927301298</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.1809547313344508</v>
+      </c>
+      <c r="O42" t="n">
+        <v>51.55276615862724</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.8508706620375585</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>17</v>
+      </c>
+      <c r="C43" t="n">
+        <v>309.199222113346</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1158657229798822</v>
+      </c>
+      <c r="F43" t="n">
+        <v>231.5730432118089</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.03135456994844448</v>
+      </c>
+      <c r="I43" t="n">
+        <v>70.42977050251196</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.09957812703722112</v>
+      </c>
+      <c r="L43" t="n">
+        <v>289.8447998452169</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8650803118305959</v>
+      </c>
+      <c r="O43" t="n">
+        <v>260.5939758342074</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.8603001898535674</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA43" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>105</v>
+      </c>
+      <c r="C44" t="n">
+        <v>194.9846849998987</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2797131736375477</v>
+      </c>
+      <c r="F44" t="n">
+        <v>116.7320277901289</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6802426240569188</v>
+      </c>
+      <c r="I44" t="n">
+        <v>263.6342243926151</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9806771748113944</v>
+      </c>
+      <c r="L44" t="n">
+        <v>62.26110229953912</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6349617580700642</v>
+      </c>
+      <c r="O44" t="n">
+        <v>146.4457271451962</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.008554609378608233</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>42</v>
+      </c>
+      <c r="BA44" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>84</v>
+      </c>
+      <c r="C45" t="n">
+        <v>205.8801541632394</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5482960271623771</v>
+      </c>
+      <c r="F45" t="n">
+        <v>219.2497570769167</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5549040644392568</v>
+      </c>
+      <c r="I45" t="n">
+        <v>64.89221116832681</v>
+      </c>
+      <c r="J45" t="n">
+        <v>10</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4806749791191022</v>
+      </c>
+      <c r="L45" t="n">
+        <v>113.0499025093551</v>
+      </c>
+      <c r="M45" t="n">
+        <v>10</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.7255671942268926</v>
+      </c>
+      <c r="O45" t="n">
+        <v>287.3722487646327</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.2318876677429051</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>43</v>
+      </c>
+      <c r="BA45" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>85</v>
+      </c>
+      <c r="C46" t="n">
+        <v>153.5084384472187</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.4758053811099681</v>
+      </c>
+      <c r="F46" t="n">
+        <v>150.7132757197208</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.06647391018153777</v>
+      </c>
+      <c r="I46" t="n">
+        <v>184.2104435318551</v>
+      </c>
+      <c r="J46" t="n">
+        <v>10</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5360510922780453</v>
+      </c>
+      <c r="L46" t="n">
+        <v>158.6345468903761</v>
+      </c>
+      <c r="M46" t="n">
+        <v>10</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1707897601309353</v>
+      </c>
+      <c r="O46" t="n">
+        <v>189.6378676633853</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.9695406122059269</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>44</v>
+      </c>
+      <c r="BA46" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>116</v>
+      </c>
+      <c r="C47" t="n">
+        <v>347.6854659279618</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5841038716633575</v>
+      </c>
+      <c r="F47" t="n">
+        <v>32.51176858060145</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.2361560957002815</v>
+      </c>
+      <c r="I47" t="n">
+        <v>173.9874464795702</v>
+      </c>
+      <c r="J47" t="n">
+        <v>10</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.7535871411558209</v>
+      </c>
+      <c r="L47" t="n">
+        <v>346.1572796507158</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.9750630218297094</v>
+      </c>
+      <c r="O47" t="n">
+        <v>76.74238369276723</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.8092585480546766</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA47" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB47" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>131</v>
+      </c>
+      <c r="C48" t="n">
+        <v>61.60811388137428</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8383995167463424</v>
+      </c>
+      <c r="F48" t="n">
+        <v>273.6432804963071</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9113890622086338</v>
+      </c>
+      <c r="I48" t="n">
+        <v>84.43337953623754</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1467101337127011</v>
+      </c>
+      <c r="L48" t="n">
+        <v>97.46907894601199</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.4525216403277977</v>
+      </c>
+      <c r="O48" t="n">
+        <v>91.10590870489455</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.519496184327046</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>46</v>
+      </c>
+      <c r="BA48" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB48" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>26</v>
+      </c>
+      <c r="C49" t="n">
+        <v>65.02615634168984</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1886218201199193</v>
+      </c>
+      <c r="F49" t="n">
+        <v>112.7828661425679</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1110946288677575</v>
+      </c>
+      <c r="I49" t="n">
+        <v>320.8199741987718</v>
+      </c>
+      <c r="J49" t="n">
+        <v>10</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.04790029486344177</v>
+      </c>
+      <c r="L49" t="n">
+        <v>54.30255033476521</v>
+      </c>
+      <c r="M49" t="n">
+        <v>10</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.6433595770206578</v>
+      </c>
+      <c r="O49" t="n">
+        <v>43.69781511583668</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.2022237010001241</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>47</v>
+      </c>
+      <c r="BA49" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB49" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>128</v>
+      </c>
+      <c r="C50" t="n">
+        <v>109.3107295116922</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.08994718597563239</v>
+      </c>
+      <c r="F50" t="n">
+        <v>295.6485299324519</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.1623226885391046</v>
+      </c>
+      <c r="I50" t="n">
+        <v>115.3435473920449</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.6669596875706366</v>
+      </c>
+      <c r="L50" t="n">
+        <v>269.4992362224343</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.5462441236088115</v>
+      </c>
+      <c r="O50" t="n">
+        <v>114.9034979239492</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.9164423894144693</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>48</v>
+      </c>
+      <c r="BA50" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB50" t="inlineStr">
+        <is>
+          <t>dikesnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>24</v>
+      </c>
+      <c r="C51" t="n">
+        <v>104.9417580973421</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1575799163013791</v>
+      </c>
+      <c r="F51" t="n">
+        <v>254.5607415613051</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.6756198619652763</v>
+      </c>
+      <c r="I51" t="n">
+        <v>244.2674664303453</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.5577664410581004</v>
+      </c>
+      <c r="L51" t="n">
+        <v>334.8412948489275</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.2956121936717752</v>
+      </c>
+      <c r="O51" t="n">
+        <v>217.997275001167</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.352277523070737</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>49</v>
+      </c>
+      <c r="BA51" t="inlineStr">
+        <is>
+          <t>Policy 0</t>
+        </is>
+      </c>
+      <c r="BB51" t="inlineStr">
         <is>
           <t>dikesnet</t>
         </is>
